--- a/biology/Zoologie/Dryopsophus_gracilentus/Dryopsophus_gracilentus.xlsx
+++ b/biology/Zoologie/Dryopsophus_gracilentus/Dryopsophus_gracilentus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus gracilentus est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus gracilentus est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre le long des côtes du Queensland et du Nord de la Nouvelle-Galles du Sud ce qui représente 320 500 km2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre le long des côtes du Queensland et du Nord de la Nouvelle-Galles du Sud ce qui représente 320 500 km2.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 31 à 42 mm et les femelles de 32 à 45 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 31 à 42 mm et les femelles de 32 à 45 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1869 : Eine Mittheilung über neue Saurier (Chaunoloemus multicarinatus, Tropidolepisma Richardi und Gymnodactylus Steudneri) und Batrachier (Cyclorhamphus fasciatus und Hyla gracilenta). Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 786-790 (texte intégral).</t>
         </is>
